--- a/data/income_statement/3digits/total/454_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/454_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>454-Sale, maintenance and repair of motorcycles and related parts and accessories</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>454-Sale, maintenance and repair of motorcycles and related parts and accessories</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,20 +841,25 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>219074.73713</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>285560.94507</v>
+        <v>285560.9450700001</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>404295.5267</v>
@@ -965,28 +871,33 @@
         <v>642811.55828</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>868232.0249900001</v>
+        <v>880367.30115</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1056313.96237</v>
+        <v>1058810.44033</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1193511.72089</v>
+        <v>1193523.79674</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1324161.32734</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1192442.03052</v>
+        <v>1194460.46861</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1592477.10105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1599974.02999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2449277.575</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>208927.33228</v>
@@ -1004,28 +915,33 @@
         <v>594788.7949600001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>806348.7990899999</v>
+        <v>818228.98698</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>988158.8818500001</v>
+        <v>990611.6608500001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1142057.30036</v>
+        <v>1142069.37621</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1242236.88471</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1126032.32728</v>
+        <v>1128047.32015</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1516198.35981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1523605.75299</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2354842.286</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>7397.215730000001</v>
@@ -1043,10 +959,10 @@
         <v>39556.47826</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>54721.53200000001</v>
+        <v>54721.532</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>57840.76708999999</v>
+        <v>57840.76709</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>37204.80649</v>
@@ -1058,13 +974,18 @@
         <v>51829.98504</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>53816.76258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>53857.64034999999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>71286.791</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>2750.18912</v>
@@ -1076,16 +997,16 @@
         <v>5204.58876</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>6947.23538</v>
+        <v>6947.235380000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>8466.285059999998</v>
+        <v>8466.28506</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>7161.6939</v>
+        <v>7416.782169999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>10314.31343</v>
+        <v>10358.01239</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>14249.61404</v>
@@ -1094,19 +1015,24 @@
         <v>13748.74031</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>14579.7182</v>
+        <v>14583.16342</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>22461.97866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>22510.63665</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>23148.498</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>6276.994620000001</v>
+        <v>6276.99462</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>6527.51977</v>
@@ -1121,10 +1047,10 @@
         <v>17588.06451</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>25618.90233</v>
+        <v>25651.65012</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>27425.7846</v>
+        <v>27456.69012</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>29496.16725</v>
@@ -1133,16 +1059,21 @@
         <v>29523.72348</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>31764.60329</v>
+        <v>31764.80329</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>40527.98205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>40533.12881</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>37341.689</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>3834.5841</v>
@@ -1157,13 +1088,13 @@
         <v>4486.03044</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>8349.513220000001</v>
+        <v>8349.513219999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>8561.96386</v>
+        <v>8594.711650000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>10253.40801</v>
+        <v>10283.6629</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>10880.042</v>
@@ -1172,16 +1103,21 @@
         <v>13084.66301</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>11264.9347</v>
+        <v>11265.1347</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>18588.3161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>18593.46286</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>15783.057</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1741.48359</v>
@@ -1205,10 +1141,10 @@
         <v>5538.65258</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>6862.070019999999</v>
+        <v>6862.07002</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>7645.741950000001</v>
+        <v>7645.74195</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>15421.08864</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>17077.2772</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>6159.573</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>700.92693</v>
@@ -1241,7 +1182,7 @@
         <v>8007.5876</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>11633.72401</v>
+        <v>11634.37464</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>11754.05523</v>
@@ -1250,22 +1191,27 @@
         <v>8793.318519999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>5078.57995</v>
+        <v>5078.579950000001</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>4862.38875</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>15399.059</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>212797.74251</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>279033.4253</v>
+        <v>279033.4252999999</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>395486.61095</v>
@@ -1277,28 +1223,33 @@
         <v>625223.4937699999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>842613.12266</v>
+        <v>854715.6510299999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1028888.17777</v>
+        <v>1031353.75021</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1164015.55364</v>
+        <v>1164027.62949</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1294637.60386</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1160677.42723</v>
+        <v>1162695.66532</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1551949.119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1559440.90118</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2411935.886</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>181617.11205</v>
@@ -1313,34 +1264,39 @@
         <v>398510.54726</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>525689.2259600001</v>
+        <v>525689.22596</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>713101.65784</v>
+        <v>723192.7169700001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>871714.30581</v>
+        <v>873506.19728</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>980260.5064500001</v>
+        <v>980325.0129600001</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1074641.19393</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>983554.1334399999</v>
+        <v>985097.65124</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1330668.96529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1336816.72133</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2099398.767</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>6833.761119999999</v>
+        <v>6833.76112</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>6167.21875</v>
@@ -1367,16 +1323,21 @@
         <v>55102.74954</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>23420.36831</v>
+        <v>23462.68638</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>34089.93296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>34131.13873</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>72825.25900000001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>172280.39717</v>
@@ -1391,31 +1352,36 @@
         <v>381519.24907</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>507588.1808200001</v>
+        <v>507588.18082</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>680093.58581</v>
+        <v>689210.8071800001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>838120.8009000001</v>
+        <v>839807.19151</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>937888.0287900001</v>
+        <v>937952.5353</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1004187.74804</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>943591.8565499999</v>
+        <v>945032.64526</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1262601.07339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1268455.44905</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1990072.629</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>2454.42057</v>
@@ -1430,13 +1396,13 @@
         <v>6823.39705</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>7851.858520000001</v>
+        <v>7851.85852</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>10110.17867</v>
+        <v>11084.01643</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>11096.20155</v>
+        <v>11201.70241</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>13555.48001</v>
@@ -1445,16 +1411,21 @@
         <v>14099.81918</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>15386.59155</v>
+        <v>15447.00257</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>31723.322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>31975.49661</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>34212.418</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>48.53319</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>2254.63694</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>2288.461</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>31180.63046</v>
@@ -1511,28 +1487,33 @@
         <v>99534.26781</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>129511.46482</v>
+        <v>131522.93406</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>157173.87196</v>
+        <v>157847.55293</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>183755.04719</v>
+        <v>183702.61653</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>219996.40993</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>177123.29379</v>
+        <v>177598.01408</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>221280.15371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>222624.17985</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>312537.119</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>31411.31656</v>
@@ -1541,7 +1522,7 @@
         <v>38774.89309000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>47043.48352</v>
+        <v>47043.48351999999</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>57546.53051</v>
@@ -1550,10 +1531,10 @@
         <v>74319.43612</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>89221.88565000001</v>
+        <v>91087.38412999999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>111593.10762</v>
+        <v>112108.62692</v>
       </c>
       <c r="J20" s="47" t="n">
         <v>138821.4969</v>
@@ -1562,16 +1543,21 @@
         <v>150458.22311</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>132632.88723</v>
+        <v>133796.49977</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>165120.85763</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>166652.97948</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>214174.662</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>123.53285</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>200.99034</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1101.934</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>9398.03341</v>
@@ -1628,28 +1619,33 @@
         <v>27230.88309</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>35292.10277</v>
+        <v>36290.29175</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>49105.22314</v>
+        <v>49192.19051000001</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>54411.00168000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>59038.72722999999</v>
+        <v>59038.72723</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>49302.75405</v>
+        <v>49630.1252</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>63122.27558</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>63518.49688000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>79697.637</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>21889.7503</v>
@@ -1667,31 +1663,36 @@
         <v>47057.61802</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>53181.53402000001</v>
+        <v>54048.84351999999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>62467.00179</v>
+        <v>62895.55372</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>83606.11278999998</v>
+        <v>83606.11279000001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>91403.85852000001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>83259.74163</v>
+        <v>84095.98302</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>101797.59171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>102933.49226</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>133375.091</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-230.6861</v>
+        <v>-230.6861000000001</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>5059.19142</v>
@@ -1706,28 +1707,33 @@
         <v>25214.83169</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>40289.57917</v>
+        <v>40435.54993</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>45580.76433999999</v>
+        <v>45738.92601</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>44933.55029</v>
+        <v>44881.11963</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>69538.18682</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>44490.40656</v>
+        <v>43801.51431000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>56159.29608</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>55971.20037</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>98362.45699999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>5700.171230000001</v>
@@ -1742,13 +1748,13 @@
         <v>5961.154970000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>9799.66763</v>
+        <v>9799.667629999998</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>19407.48979</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>33809.59682</v>
+        <v>33813.39829</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>23555.67431</v>
@@ -1757,16 +1763,21 @@
         <v>40869.87473</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>22257.35892</v>
+        <v>22305.49097</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>14087.07397</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>14282.74455</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>26266.097</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>477.93272</v>
@@ -1853,7 +1874,7 @@
         <v>291.0735</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>98.48392</v>
+        <v>98.48392000000001</v>
       </c>
       <c r="F28" s="48" t="n">
         <v>559.85652</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>2952.48125</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>2928.641</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>67.54733999999999</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>211.52501</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>339.146</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>41.88601</v>
@@ -1943,7 +1974,7 @@
         <v>91.03279000000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5.392320000000001</v>
+        <v>5.39232</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>282.86264</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1.65399</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>31.6981</v>
@@ -1996,14 +2032,19 @@
       <c r="M31" s="48" t="n">
         <v>347.57057</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1464.87</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>4124.58405</v>
+        <v>4124.584049999999</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>4819.87104</v>
@@ -2015,13 +2056,13 @@
         <v>3675.75641</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>6807.889</v>
+        <v>6807.889000000001</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>8812.235409999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>19597.61865</v>
+        <v>19598.15352</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>10800.69991</v>
@@ -2030,16 +2071,21 @@
         <v>12617.39103</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>14304.22519</v>
+        <v>14352.35724</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6567.75603</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>6725.80667</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>16199.51</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>3.32842</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>44.43983</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>953.1945900000001</v>
+        <v>953.1945899999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>837.5473600000001</v>
+        <v>837.54736</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>1035.53475</v>
@@ -2135,28 +2191,33 @@
         <v>2425.33246</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>3163.661349999999</v>
+        <v>3163.66135</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>5595.18146</v>
+        <v>5598.44806</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>5692.41437</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>6762.382779999999</v>
+        <v>6762.38278</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>5113.76019</v>
+        <v>5113.760189999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3961.64729</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3999.26723</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>5330.25</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>3834.7298</v>
@@ -2165,7 +2226,7 @@
         <v>4562.98699</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>9546.530100000002</v>
+        <v>9546.5301</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>3636.92727</v>
@@ -2174,10 +2235,10 @@
         <v>4486.0415</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>14252.8617</v>
+        <v>14347.19911</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>23994.07965</v>
+        <v>23995.39478</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>25426.50159</v>
@@ -2186,16 +2247,21 @@
         <v>21358.26631</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>20065.96951</v>
+        <v>20225.28636</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>12303.59792</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>12318.09894</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>11800.224</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>102.05793</v>
@@ -2210,10 +2276,10 @@
         <v>187.21601</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>373.20342</v>
+        <v>373.2034200000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>642.7859599999999</v>
+        <v>665.9725</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>1122.81156</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>581.6867199999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>982.487</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>249.54958</v>
@@ -2252,7 +2323,7 @@
         <v>236.92726</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>768.8880300000001</v>
+        <v>768.88803</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>376.2490299999999</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>211.81795</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>26.22064</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>373.403</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>2920.53147</v>
@@ -2321,7 +2402,7 @@
         <v>3128.18945</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>6067.636959999999</v>
+        <v>6067.63696</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>2905.12432</v>
@@ -2330,10 +2411,10 @@
         <v>2933.98402</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>5357.92333</v>
+        <v>5357.95157</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>15309.59602</v>
+        <v>15310.91054</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>15832.72668</v>
@@ -2342,16 +2423,21 @@
         <v>12024.00417</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>16699.71592</v>
+        <v>16859.03277</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>11146.07776</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>11107.43106</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>10213.996</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1.03238</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>561.5584399999999</v>
@@ -2438,7 +2534,7 @@
         <v>322.88927</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>487.1584300000001</v>
+        <v>487.15843</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>317.86859</v>
@@ -2447,10 +2543,10 @@
         <v>927.6940400000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>812.9301800000001</v>
+        <v>884.0528099999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>878.1915700000001</v>
+        <v>878.1921799999999</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>1101.86202</v>
@@ -2459,16 +2555,21 @@
         <v>1004.34993</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>544.0585500000001</v>
+        <v>544.05855</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>337.79485</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>390.9425699999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>230.338</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>10212.09509</v>
@@ -2486,10 +2587,10 @@
         <v>13001.68937</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>16730.85565</v>
+        <v>17604.16339</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>26955.21828</v>
+        <v>27122.27825</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>31980.27634</v>
@@ -2498,16 +2599,21 @@
         <v>33943.7451</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>40431.82926999999</v>
+        <v>40434.05087</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>39088.74001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>39127.88062999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>33900.248</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>10023.9047</v>
@@ -2525,10 +2631,10 @@
         <v>11400.02369</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>15765.60552</v>
+        <v>16638.91326</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>24540.53885</v>
+        <v>24707.59882</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>30746.61229</v>
@@ -2537,16 +2643,21 @@
         <v>32151.14988</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>39988.3872</v>
+        <v>39990.6088</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>38755.21138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>38794.352</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>32986.754</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>188.19039</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>333.52863</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>913.494</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-8577.339759999999</v>
@@ -2603,28 +2719,33 @@
         <v>17526.76845</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>28713.35161</v>
+        <v>27891.67722</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>28441.06323</v>
+        <v>28434.65127</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>11082.44667</v>
+        <v>11030.01601</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>55106.05014000001</v>
+        <v>55106.05014</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>6249.9667</v>
+        <v>5447.66805</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>18854.03212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>18807.96535</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>78928.08199999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>643.23702</v>
@@ -2642,28 +2763,33 @@
         <v>1349.37934</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2238.09361</v>
+        <v>2338.75343</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3375.72216</v>
+        <v>3384.29049</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5799.77174</v>
+        <v>5799.871740000001</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>6024.19468</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>4630.74921</v>
+        <v>4731.21216</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>6909.02669</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>6953.86812</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>6216.178</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0.5744499999999999</v>
@@ -2698,14 +2824,19 @@
       <c r="M49" s="48" t="n">
         <v>2.08089</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>642.66257</v>
+        <v>642.6625700000001</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>904.77007</v>
@@ -2720,28 +2851,33 @@
         <v>1349.12046</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2227.8061</v>
+        <v>2328.46592</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3270.14964</v>
+        <v>3278.71797</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5785.159239999999</v>
+        <v>5785.25924</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>5953.38667</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>4433.2179</v>
+        <v>4533.68085</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>6906.9458</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>6951.787230000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>6216.178</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>986.8286699999999</v>
@@ -2750,7 +2886,7 @@
         <v>3586.62644</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>7619.864800000001</v>
+        <v>7619.864799999999</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>2016.86152</v>
@@ -2759,28 +2895,33 @@
         <v>2717.81728</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>2798.17424</v>
+        <v>3011.40199</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2672.85243</v>
+        <v>2692.50272</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>6020.140189999999</v>
+        <v>6020.1402</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>5289.723359999999</v>
+        <v>5289.72336</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>7573.43035</v>
+        <v>7576.501079999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>5095.17317</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>5124.149230000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>6603.074</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>31.62766</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>10.139</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>37.84621</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>113.14609</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>140.269</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>917.3548000000001</v>
@@ -2867,7 +3018,7 @@
         <v>3255.55275</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>7580.89559</v>
+        <v>7580.895590000001</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>1987.6332</v>
@@ -2876,28 +3027,33 @@
         <v>2716.70093</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>2781.24637</v>
+        <v>2994.47412</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2641.82005</v>
+        <v>2661.47034</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>5735.553220000001</v>
+        <v>5735.55323</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>5218.71792</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>7502.102789999999</v>
+        <v>7505.173519999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>4982.02708</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>5011.00314</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>6452.666</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-8920.931410000001</v>
@@ -2915,28 +3071,33 @@
         <v>16158.33051</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>28153.27098</v>
+        <v>27219.02866</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>29143.93296</v>
+        <v>29126.43904</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>10862.07822</v>
+        <v>10809.74755</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>55840.52146</v>
+        <v>55840.52146000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>3307.28556</v>
+        <v>2602.37913</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>20667.88564</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>20637.68424</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>78541.186</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>969.81616</v>
@@ -2957,7 +3118,7 @@
         <v>6388.82067</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>6629.890600000001</v>
+        <v>6638.269480000001</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>4045.56189</v>
@@ -2966,16 +3127,21 @@
         <v>9010.94608</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>4113.50719</v>
+        <v>4117.29472</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>9648.69267</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>9657.911109999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>14388.844</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-9890.74757</v>
@@ -2984,7 +3150,7 @@
         <v>-3380.72613</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-5816.45509</v>
+        <v>-5816.455089999999</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>5588.95973</v>
@@ -2993,25 +3159,28 @@
         <v>13298.18591</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>21764.45031</v>
+        <v>20830.20799</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>22514.04236</v>
+        <v>22488.16956</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>6816.51633</v>
+        <v>6764.185659999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>46829.57537999999</v>
+        <v>46829.57538</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-806.22163</v>
+        <v>-1514.91559</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>11019.19297</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>10979.77313</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>64152.342</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>320</v>
@@ -3047,25 +3219,28 @@
         <v>379</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>450</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>498</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>